--- a/Interligacoes-ETA.xlsx
+++ b/Interligacoes-ETA.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B87C24-0505-4795-BAA8-8A9C4E5A08B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD6CA01-CD26-4DB8-B298-51198E000C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E528CEB-5024-48A7-BFB7-34C5AC29D1CB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0E528CEB-5024-48A7-BFB7-34C5AC29D1CB}"/>
   </bookViews>
   <sheets>
-    <sheet name="RedeAgua" sheetId="1" r:id="rId1"/>
-    <sheet name="Interligacao" sheetId="2" r:id="rId2"/>
+    <sheet name="Saida" sheetId="1" r:id="rId1"/>
+    <sheet name="Entrada" sheetId="2" r:id="rId2"/>
     <sheet name="Licitação" sheetId="3" r:id="rId3"/>
+    <sheet name="Etaoperacao" sheetId="4" r:id="rId4"/>
+    <sheet name="Etaobra" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t>Item</t>
   </si>
@@ -68,9 +70,6 @@
     <t>Projeto estrutural e arquitetonico das 4 caixas de passagem (cotas de fundo, dimensões, ferragens, etc)</t>
   </si>
   <si>
-    <t>A redefinicao do projeto impactará diretamente na planilha orçamentaria (Item D@), pois alterações nas metragens dos materiais e serviços modificarão os valores previstos, exigindo ajustes formais. Além disso, o projeto atualizado é essencial para garantir medições precisas já que a fiscalização demandará a integracao dos dados do projeto às medições oficiais, assegurando que os valores pagos correpondam ao efetivamente executado. Sem essa documentação técnica, há risco significativo de glosas devido a divergencias entre o planejado(planilha original) e o executado(obra real), compromentendo a transparencia e a aprovação financeira do serviço</t>
-  </si>
-  <si>
     <t xml:space="preserve">Material </t>
   </si>
   <si>
@@ -86,6 +85,9 @@
     <t>SANEAR</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
     <t xml:space="preserve">Responsavel </t>
   </si>
   <si>
@@ -102,6 +104,70 @@
   </si>
   <si>
     <t>Laura</t>
+  </si>
+  <si>
+    <t>A redefinicao do projeto impactará diretamente na planilha orçamentaria (Item D2), pois alterações nas metragens dos materiais e serviços modificarão os valores previstos, exigindo ajustes formais. Além disso, o projeto atualizado é essencial para garantir medições precisas já que a fiscalização demandará a integracao dos dados do projeto às medições oficiais, assegurando que os valores pagos correpondam ao efetivamente executado. Sem essa documentação técnica, há risco significativo de glosas devido a divergencias entre o planejado(planilha original) e o executado(obra real), compromentendo a transparencia e a aprovação financeira do serviço</t>
+  </si>
+  <si>
+    <t>Estruturação da sala para o novo gerador de hipoclorito de sódio e tanque de armazenamento (volume 23 m3): Adequação do espaço físico para instalação e operação segura do gerador, incluindo infraestrutura elétrica, hidráulica, ventilação e ar condicionado.</t>
+  </si>
+  <si>
+    <t>Adequar da área de tanques de produtos químicos:
+Impermeabilização da área existente com produto adequado para evitar futuros vazamentos, como ocorrido recentemente e foi identificado falha na contenção, devido à falta de impermeabilização adequada.</t>
+  </si>
+  <si>
+    <t>Contratar empresa para construção de nova estrutura para os novos tanques de produtos químicos, dimensionada para atender à demanda e garantir a segurança (impermeabilização adequada).</t>
+  </si>
+  <si>
+    <t>Construção de caixa de contenção com capacidade adequada para conter eventuais vazamentos, similar à estrutura existente no antigo local.</t>
+  </si>
+  <si>
+    <t>Adequar de espaço para comportar novas bombas de dosagens de produtos químicos para vazões maiores (ETA I e ETA II).</t>
+  </si>
+  <si>
+    <t>Adequar local para EPP – Estação Preparadora de Polímero para 02 ETA´s.</t>
+  </si>
+  <si>
+    <t>Verificar se o quadro elétrico suporta bombas maiores ou se necessário adequar.</t>
+  </si>
+  <si>
+    <t>Revisão das condições dos filtros da ETA II</t>
+  </si>
+  <si>
+    <t>Revisão de sopradores, válvulas e quadro elétrico da ETA II.</t>
+  </si>
+  <si>
+    <t>Instalação de sistema de descarga automatizado (foi instalado manual).</t>
+  </si>
+  <si>
+    <t>ETL (revisão geral do sistema e contratação de consultoria para startup com capacitação dos colaboradores da ETA, com produção de POP´s).</t>
+  </si>
+  <si>
+    <t>Adequar EEAT para operação de bombas para funcionamento das duas ETA´s (bombas existentes ou licitar?).</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>descrição</t>
+  </si>
+  <si>
+    <t>obra</t>
+  </si>
+  <si>
+    <t>licitacao</t>
+  </si>
+  <si>
+    <t>Aquisição de um gerador de hipoclorito de sódio para a ETA II, sendo que o existente foi dimensionado para ETA I.</t>
+  </si>
+  <si>
+    <t>Aquisição de tanques para armazenamento de produtos químicos (PAC e soda) utilizados no tratamento da água, sendo que os existentes foram dimensionados para demanda da ETA I. Capacidade: 02 tanques de 50 m3 para PAC e 01 tanque de 50 m3 para soda.</t>
+  </si>
+  <si>
+    <t>Aquisição de um sistema automatizado para a preparação de soluções de polímero, para captação (sugestão do projetista), deve ser licitado 01 equipamento para ETA também.</t>
+  </si>
+  <si>
+    <t>Aquisição de bombas dosadoras para a injeção precisa de produtos químicos no processo de tratamento da água, sendo que as existentes são para a demanda da ETA I. Deve ser adquirida bombas com range para água de baixa e alta turbidez. Sugestão: de preferência bombas peristálticas, devido a necessidade de menor manutenção.</t>
   </si>
 </sst>
 </file>
@@ -117,12 +183,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -163,8 +235,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -177,6 +252,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A4D0CF-4CF5-4EFE-92F0-0C27D59769D1}">
-  <dimension ref="A3:F12"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,122 +582,122 @@
     <col min="6" max="6" width="44.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="174" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="174" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -634,7 +710,7 @@
   <dimension ref="A3:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,49 +722,49 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -700,7 +776,7 @@
   <dimension ref="A3:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,62 +788,280 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9A52E4-C1A9-4576-B8F0-04AFFC0D0EA6}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="236.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67EF19E-EA00-4B0D-A028-3871D09D0E4B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Interligacoes-ETA.xlsx
+++ b/Interligacoes-ETA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD6CA01-CD26-4DB8-B298-51198E000C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172772B5-1884-4D35-8562-6FF6141307C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0E528CEB-5024-48A7-BFB7-34C5AC29D1CB}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
   <si>
     <t>Item</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>Está no canteiro</t>
-  </si>
-  <si>
-    <t>Agendar para de opração de 72 horas (minimo) com 1 semana de antecedencia para definição da estrategia de intervenção</t>
   </si>
   <si>
     <t>SANEAR</t>
@@ -168,6 +165,9 @@
   </si>
   <si>
     <t>Aquisição de bombas dosadoras para a injeção precisa de produtos químicos no processo de tratamento da água, sendo que as existentes são para a demanda da ETA I. Deve ser adquirida bombas com range para água de baixa e alta turbidez. Sugestão: de preferência bombas peristálticas, devido a necessidade de menor manutenção.</t>
+  </si>
+  <si>
+    <t>Agendar parada de opração de 72 horas (minimo) com 1 semana de antecedencia para definição da estrategia de intervenção</t>
   </si>
 </sst>
 </file>
@@ -235,23 +235,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -569,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A4D0CF-4CF5-4EFE-92F0-0C27D59769D1}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,121 +576,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="174" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -709,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07E2FE5-2646-45DA-9E20-59340EFB08D6}">
   <dimension ref="A3:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,49 +715,49 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -773,10 +766,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED9F3A7-14E1-4FF5-95F7-3F1506A52F99}">
-  <dimension ref="A3:E6"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,61 +780,61 @@
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -850,203 +843,263 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9A52E4-C1A9-4576-B8F0-04AFFC0D0EA6}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="236.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="163" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="C17" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Interligacoes-ETA.xlsx
+++ b/Interligacoes-ETA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Saida"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
   <si>
     <t>item</t>
   </si>
@@ -105,6 +105,12 @@
     <t>Fabiola</t>
   </si>
   <si>
+    <t>Licitar</t>
+  </si>
+  <si>
+    <t>Maio/2025</t>
+  </si>
+  <si>
     <t>Elaborar TR do Decantador</t>
   </si>
   <si>
@@ -142,9 +148,6 @@
   </si>
   <si>
     <t>Especificações técnicas de juntas de desmontagem, valvulas borboletas, curvas e conexoes</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Definicao da cota de fundo da rede e nota de serviço para escavação</t>
@@ -173,13 +176,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -201,7 +210,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -225,6 +234,13 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -239,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -269,28 +285,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,7 +624,7 @@
     <col min="3" max="3" style="11" width="21.290714285714284" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="11" width="19.862142857142857" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="11" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="44.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="18" width="44.57642857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -616,7 +635,7 @@
         <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
@@ -631,112 +650,110 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="14"/>
+      <c r="F2" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>41</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="14"/>
+      <c r="F3" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="14"/>
+      <c r="F4" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="14"/>
+      <c r="F5" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="14"/>
+      <c r="F6" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="14"/>
+      <c r="F7" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="14"/>
+      <c r="F8" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="14"/>
+      <c r="F9" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="174">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="14"/>
+      <c r="F10" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -750,7 +767,7 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -775,7 +792,7 @@
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -783,7 +800,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
@@ -792,30 +809,30 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="12">
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="74.25">
       <c r="A5" s="12">
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -832,7 +849,7 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -870,57 +887,73 @@
       <c r="C2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="12">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="13">
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="D4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="13">
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="D5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="12">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
